--- a/updated_covid.xlsx
+++ b/updated_covid.xlsx
@@ -1165,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM56"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="2">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -6413,8 +6413,8 @@
       <c r="A46">
         <v>0</v>
       </c>
-      <c r="B46" s="2">
-        <v>43935</v>
+      <c r="B46">
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -6525,1196 +6525,6 @@
         <v>0</v>
       </c>
       <c r="AM46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39">
-      <c r="A47">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>0</v>
-      </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
-      <c r="AK47">
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <v>0</v>
-      </c>
-      <c r="AM47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39">
-      <c r="A48">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:39">
-      <c r="A49">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>0</v>
-      </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:39">
-      <c r="A50">
-        <v>0</v>
-      </c>
-      <c r="B50" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>0</v>
-      </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
-      <c r="AK50">
-        <v>0</v>
-      </c>
-      <c r="AL50">
-        <v>0</v>
-      </c>
-      <c r="AM50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:39">
-      <c r="A51">
-        <v>0</v>
-      </c>
-      <c r="B51" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>0</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>0</v>
-      </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
-      <c r="AK51">
-        <v>0</v>
-      </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AM51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:39">
-      <c r="A52">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:39">
-      <c r="A53">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <v>0</v>
-      </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:39">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:39">
-      <c r="A55">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:39">
-      <c r="A56">
-        <v>0</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <v>0</v>
-      </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56">
-        <v>0</v>
-      </c>
-      <c r="AI56">
-        <v>0</v>
-      </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
-      <c r="AK56">
-        <v>0</v>
-      </c>
-      <c r="AL56">
-        <v>0</v>
-      </c>
-      <c r="AM56">
         <v>0</v>
       </c>
     </row>
@@ -7725,7 +6535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM56"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12736,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="2">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -12861,13 +11671,13 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -12891,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -12906,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -12918,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -12936,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45">
         <v>0</v>
@@ -12945,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AG45">
         <v>0</v>
@@ -12966,15 +11776,15 @@
         <v>0</v>
       </c>
       <c r="AM45">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:39">
       <c r="A46">
         <v>0</v>
       </c>
-      <c r="B46" s="2">
-        <v>43935</v>
+      <c r="B46">
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -13085,1196 +11895,6 @@
         <v>0</v>
       </c>
       <c r="AM46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39">
-      <c r="A47">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>0</v>
-      </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
-      <c r="AK47">
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <v>0</v>
-      </c>
-      <c r="AM47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39">
-      <c r="A48">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:39">
-      <c r="A49">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>0</v>
-      </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:39">
-      <c r="A50">
-        <v>0</v>
-      </c>
-      <c r="B50" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>0</v>
-      </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
-      <c r="AK50">
-        <v>0</v>
-      </c>
-      <c r="AL50">
-        <v>0</v>
-      </c>
-      <c r="AM50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:39">
-      <c r="A51">
-        <v>0</v>
-      </c>
-      <c r="B51" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>0</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>0</v>
-      </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
-      <c r="AK51">
-        <v>0</v>
-      </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AM51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:39">
-      <c r="A52">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:39">
-      <c r="A53">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <v>0</v>
-      </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:39">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:39">
-      <c r="A55">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>34</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>45</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>11</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>121</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>1</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>48</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:39">
-      <c r="A56">
-        <v>0</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <v>0</v>
-      </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56">
-        <v>0</v>
-      </c>
-      <c r="AI56">
-        <v>0</v>
-      </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
-      <c r="AK56">
-        <v>0</v>
-      </c>
-      <c r="AL56">
-        <v>0</v>
-      </c>
-      <c r="AM56">
         <v>0</v>
       </c>
     </row>
@@ -14285,7 +11905,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM56"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19296,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="2">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -19421,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -19451,7 +17071,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -19463,10 +17083,10 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -19496,7 +17116,7 @@
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD45">
         <v>0</v>
@@ -19526,15 +17146,15 @@
         <v>0</v>
       </c>
       <c r="AM45">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:39">
       <c r="A46">
         <v>0</v>
       </c>
-      <c r="B46" s="2">
-        <v>43935</v>
+      <c r="B46">
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -19645,1196 +17265,6 @@
         <v>0</v>
       </c>
       <c r="AM46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39">
-      <c r="A47">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>0</v>
-      </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
-      <c r="AK47">
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <v>0</v>
-      </c>
-      <c r="AM47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39">
-      <c r="A48">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:39">
-      <c r="A49">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>0</v>
-      </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:39">
-      <c r="A50">
-        <v>0</v>
-      </c>
-      <c r="B50" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>0</v>
-      </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
-      <c r="AK50">
-        <v>0</v>
-      </c>
-      <c r="AL50">
-        <v>0</v>
-      </c>
-      <c r="AM50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:39">
-      <c r="A51">
-        <v>0</v>
-      </c>
-      <c r="B51" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>0</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>0</v>
-      </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
-      <c r="AK51">
-        <v>0</v>
-      </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AM51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:39">
-      <c r="A52">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:39">
-      <c r="A53">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <v>0</v>
-      </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:39">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:39">
-      <c r="A55">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2">
-        <v>43935</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>13</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>5</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:39">
-      <c r="A56">
-        <v>0</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <v>0</v>
-      </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56">
-        <v>0</v>
-      </c>
-      <c r="AI56">
-        <v>0</v>
-      </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
-      <c r="AK56">
-        <v>0</v>
-      </c>
-      <c r="AL56">
-        <v>0</v>
-      </c>
-      <c r="AM56">
         <v>0</v>
       </c>
     </row>
